--- a/附件/全部人.xlsx
+++ b/附件/全部人.xlsx
@@ -1,106 +1,103 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LearnProject\xlsxdemo-master\附件\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D929DF62-B7C1-4058-805F-ACCEFF19520A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30720" windowHeight="13668"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>电话</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
   <si>
     <t>区县</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
   </si>
   <si>
     <t>北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>大兴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>李四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>王五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>赵六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>张三1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>李四1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>王五1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>赵六1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>张三2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>李四2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>王五3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵六4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯七</t>
+  </si>
+  <si>
+    <t>褚八</t>
+  </si>
+  <si>
+    <t>卫九</t>
+  </si>
+  <si>
+    <t>蒋二</t>
+  </si>
+  <si>
+    <t>沈三</t>
+  </si>
+  <si>
+    <t>韩四</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,29 +106,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -139,37 +459,324 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFD7D7D7"/>
         </patternFill>
       </fill>
@@ -180,14 +787,12 @@
         <i val="0"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
+        <patternFill patternType="none"/>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{14B6E6F2-7861-4061-BEE2-FD8164EDC831}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -195,9 +800,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -246,7 +848,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,26 +881,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -331,23 +916,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -518,235 +1086,311 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A13" sqref="A13:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.75" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>18379186961</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>18379186962</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>18379186369</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>18379186969</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>18379186969</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>18379186969</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>18379186969</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>18379186969</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>18379186969</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>18379186969</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>18379186969</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2">
-        <v>18379186969</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
+      <c r="B13">
+        <v>18379186912</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>18379186913</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>18379186914</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>18379186915</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>18379186916</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>18379186617</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/附件/全部人.xlsx
+++ b/附件/全部人.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LearnProject\lucky_draw\lucky_draw\附件\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E916715-F42C-4FBB-91E9-8A0E7C29E807}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13668"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="43">
   <si>
     <t>姓名</t>
   </si>
@@ -85,19 +91,93 @@
   </si>
   <si>
     <t>韩四</t>
+  </si>
+  <si>
+    <t>张三3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王五3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵六3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯七3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>褚八3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫九3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋二3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈三3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩四3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王五4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵六4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯七4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>褚八4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫九4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋二4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈三4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩四4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,349 +189,33 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -459,255 +223,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,62 +242,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{7788AB35-8A42-4C10-BAF2-508C65818E90}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <i val="0"/>
       </font>
       <fill>
@@ -792,7 +285,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -800,6 +293,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1086,25 +582,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.75" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1118,7 +614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1132,7 +628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1146,7 +642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1160,7 +656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1174,7 +670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1188,7 +684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1202,7 +698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1216,7 +712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1230,7 +726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,7 +740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1258,7 +754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1272,7 +768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1286,7 +782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1300,7 +796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1314,7 +810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1328,7 +824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -1342,7 +838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1356,41 +852,315 @@
         <v>6</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="4">
+        <v>18279186999</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="4">
+        <v>18129186999</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="4">
+        <v>12379186999</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="4">
+        <v>18373486999</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="6">
+        <v>12379186912</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="6">
+        <v>17379186913</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="6">
+        <v>19879186914</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="6">
+        <v>18379186915</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="6">
+        <v>16779186916</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="6">
+        <v>19379186617</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="4">
+        <v>18279186999</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="4">
+        <v>18129186999</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="4">
+        <v>12379186999</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="4">
+        <v>18373486999</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="6">
+        <v>12379186912</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="6">
+        <v>17379186913</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="6">
+        <v>19879186914</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="6">
+        <v>18379186915</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="6">
+        <v>16779186916</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="6">
+        <v>19379186617</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>